--- a/tests/unit_tests/results/test_res.xlsx
+++ b/tests/unit_tests/results/test_res.xlsx
@@ -4,11 +4,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RES_OVER_YEARS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RES_PER_YEAR" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45,15 +45,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -414,15 +414,5362 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:L206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_RES_2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BAGGS_RES_15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7814.36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20584.74</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37500.63</v>
+      </c>
+      <c r="E9" t="n">
+        <v>38495.07</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14530.32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>32806.12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13390.69</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6525.49</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5912.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>177560.02</v>
+      </c>
+      <c r="L9" t="n">
+        <v>177560.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Scheitholz</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4048.04</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5136.39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16489.38</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9455.120000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4054.16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12109.61</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5530.88</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2908.97</v>
+      </c>
+      <c r="J10" t="n">
+        <v>858.47</v>
+      </c>
+      <c r="K10" t="n">
+        <v>60591.02</v>
+      </c>
+      <c r="L10" t="n">
+        <v>60591.02</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3681.42</v>
+      </c>
+      <c r="D11" t="n">
+        <v>632.22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7528.82</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2299.67</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5777.13</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19919.26</v>
+      </c>
+      <c r="L11" t="n">
+        <v>19919.26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8539.889999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20557.95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>39639.73</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40460.24</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17557.19</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18228.04</v>
+      </c>
+      <c r="H12" t="n">
+        <v>24869.26</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10338.56</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4986.62</v>
+      </c>
+      <c r="K12" t="n">
+        <v>185177.48</v>
+      </c>
+      <c r="L12" t="n">
+        <v>185177.48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)_Ausnutzungsdauer (h)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3398.88</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3481.16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5298.59</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4881.63</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3388.45</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4290.89</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3008.42</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2204.93</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5812.52</v>
+      </c>
+      <c r="K13" t="n">
+        <v>35765.47</v>
+      </c>
+      <c r="L13" t="n">
+        <v>35765.47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17.9533023879</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13825.5047865</v>
+      </c>
+      <c r="D14" t="n">
+        <v>26330.2895150922</v>
+      </c>
+      <c r="E14" t="n">
+        <v>35424.3685264689</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10854.0662566941</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14109.3236133234</v>
+      </c>
+      <c r="H14" t="n">
+        <v>19068.4959105432</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7145.381698656301</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4046.1053181747</v>
+      </c>
+      <c r="K14" t="n">
+        <v>130821.4889278407</v>
+      </c>
+      <c r="L14" t="n">
+        <v>130821.4889278407</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1395.94</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4882.55</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9937.83</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5476.61</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3561.14</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5502.24</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3605.02</v>
+      </c>
+      <c r="I15" t="n">
+        <v>986.48</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3301.19</v>
+      </c>
+      <c r="K15" t="n">
+        <v>38649</v>
+      </c>
+      <c r="L15" t="n">
+        <v>38649</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>404.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>77.36</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>509.61</v>
+      </c>
+      <c r="L16" t="n">
+        <v>509.61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare insgesamt</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.450000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare Elektrizitätserzeugung</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.990000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>25216.5633023879</v>
+      </c>
+      <c r="C19" t="n">
+        <v>72556.0447865</v>
+      </c>
+      <c r="D19" t="n">
+        <v>135829.8195150922</v>
+      </c>
+      <c r="E19" t="n">
+        <v>141750.2985264689</v>
+      </c>
+      <c r="F19" t="n">
+        <v>56246.5062566941</v>
+      </c>
+      <c r="G19" t="n">
+        <v>92901.4436133234</v>
+      </c>
+      <c r="H19" t="n">
+        <v>69474.2259105432</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30111.1316986563</v>
+      </c>
+      <c r="J19" t="n">
+        <v>24917.7553181747</v>
+      </c>
+      <c r="K19" t="n">
+        <v>649003.7889278407</v>
+      </c>
+      <c r="L19" t="n">
+        <v>649003.7889278407</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_RES_2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BAGGS_RES_16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7865.83</v>
+      </c>
+      <c r="C28" t="n">
+        <v>21736.08</v>
+      </c>
+      <c r="D28" t="n">
+        <v>37263.96</v>
+      </c>
+      <c r="E28" t="n">
+        <v>37710.17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>14223.57</v>
+      </c>
+      <c r="G28" t="n">
+        <v>35063.38</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12827.37</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6450.71</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5307.97</v>
+      </c>
+      <c r="K28" t="n">
+        <v>178449.04</v>
+      </c>
+      <c r="L28" t="n">
+        <v>178449.04</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Scheitholz</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4201.77</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4949.88</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17335.48</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9846.58</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4173.52</v>
+      </c>
+      <c r="G29" t="n">
+        <v>12135.89</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5521.72</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3006.87</v>
+      </c>
+      <c r="J29" t="n">
+        <v>907.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>62079.11</v>
+      </c>
+      <c r="L29" t="n">
+        <v>62079.11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5319.54</v>
+      </c>
+      <c r="D30" t="n">
+        <v>613.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7463.23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2310.38</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8930.549999999999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>24637.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>24637.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8691.860000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>21870</v>
+      </c>
+      <c r="D31" t="n">
+        <v>41716.4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>39978.21</v>
+      </c>
+      <c r="F31" t="n">
+        <v>17409.57</v>
+      </c>
+      <c r="G31" t="n">
+        <v>19526.12</v>
+      </c>
+      <c r="H31" t="n">
+        <v>24795.85</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10093.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5044.42</v>
+      </c>
+      <c r="K31" t="n">
+        <v>189125.83</v>
+      </c>
+      <c r="L31" t="n">
+        <v>189125.83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)_Ausnutzungsdauer (h)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3751.02</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3903.6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5926.23</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5411.44</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3335.61</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4700</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2899.95</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2400.94</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6353.24</v>
+      </c>
+      <c r="K32" t="n">
+        <v>38682.03</v>
+      </c>
+      <c r="L32" t="n">
+        <v>38682.03</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>18.032969724</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13828.3654666608</v>
+      </c>
+      <c r="D33" t="n">
+        <v>26238.7876016145</v>
+      </c>
+      <c r="E33" t="n">
+        <v>35325.7155605838</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10818.0773566041</v>
+      </c>
+      <c r="G33" t="n">
+        <v>14335.0574281926</v>
+      </c>
+      <c r="H33" t="n">
+        <v>18945.379600521</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7060.2280082763</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4004.9639970219</v>
+      </c>
+      <c r="K33" t="n">
+        <v>130574.607989199</v>
+      </c>
+      <c r="L33" t="n">
+        <v>130574.607989199</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1265.28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5000.24</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10191.24</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5573.26</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3486.34</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5585.77</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3612.73</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1000.99</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3270.49</v>
+      </c>
+      <c r="K34" t="n">
+        <v>38986.34</v>
+      </c>
+      <c r="L34" t="n">
+        <v>38986.34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>359.9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>478.56</v>
+      </c>
+      <c r="L35" t="n">
+        <v>478.56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare insgesamt</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare Elektrizitätserzeugung</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>7.000000000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>25795.282969724</v>
+      </c>
+      <c r="C38" t="n">
+        <v>76969.1554666608</v>
+      </c>
+      <c r="D38" t="n">
+        <v>139287.1876016145</v>
+      </c>
+      <c r="E38" t="n">
+        <v>141338.4055605838</v>
+      </c>
+      <c r="F38" t="n">
+        <v>55758.56735660409</v>
+      </c>
+      <c r="G38" t="n">
+        <v>100367.3574281926</v>
+      </c>
+      <c r="H38" t="n">
+        <v>68604.459600521</v>
+      </c>
+      <c r="I38" t="n">
+        <v>30014.4080082763</v>
+      </c>
+      <c r="J38" t="n">
+        <v>24888.7339970219</v>
+      </c>
+      <c r="K38" t="n">
+        <v>663023.5579891989</v>
+      </c>
+      <c r="L38" t="n">
+        <v>663023.5579891989</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_RES_2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BAGGS_RES_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7903.82</v>
+      </c>
+      <c r="C47" t="n">
+        <v>21788.59</v>
+      </c>
+      <c r="D47" t="n">
+        <v>36918.57</v>
+      </c>
+      <c r="E47" t="n">
+        <v>38754.39</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14218.71</v>
+      </c>
+      <c r="G47" t="n">
+        <v>35198.52</v>
+      </c>
+      <c r="H47" t="n">
+        <v>13371.59</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6454.49</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4835.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>179443.88</v>
+      </c>
+      <c r="L47" t="n">
+        <v>179443.88</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Scheitholz</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4066.68</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5546.64</v>
+      </c>
+      <c r="D48" t="n">
+        <v>16525.28</v>
+      </c>
+      <c r="E48" t="n">
+        <v>11015.84</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3459.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>12190.91</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6132.33</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2541.99</v>
+      </c>
+      <c r="J48" t="n">
+        <v>742.6799999999999</v>
+      </c>
+      <c r="K48" t="n">
+        <v>62221.85</v>
+      </c>
+      <c r="L48" t="n">
+        <v>62221.85000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4980.33</v>
+      </c>
+      <c r="D49" t="n">
+        <v>590.28</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7480.83</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2501.14</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9198.75</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>24751.33</v>
+      </c>
+      <c r="L49" t="n">
+        <v>24751.33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9038.01</v>
+      </c>
+      <c r="C50" t="n">
+        <v>21832.9</v>
+      </c>
+      <c r="D50" t="n">
+        <v>42664.35</v>
+      </c>
+      <c r="E50" t="n">
+        <v>40439.36</v>
+      </c>
+      <c r="F50" t="n">
+        <v>17013.68</v>
+      </c>
+      <c r="G50" t="n">
+        <v>20178.07</v>
+      </c>
+      <c r="H50" t="n">
+        <v>24573.69</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10014.6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5039.19</v>
+      </c>
+      <c r="K50" t="n">
+        <v>190793.85</v>
+      </c>
+      <c r="L50" t="n">
+        <v>190793.85</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)_Ausnutzungsdauer (h)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3233.85</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3165.63</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5926.72</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5446.28</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3411.58</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4408.61</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2914.85</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2465.67</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6348.86</v>
+      </c>
+      <c r="K51" t="n">
+        <v>37322.05</v>
+      </c>
+      <c r="L51" t="n">
+        <v>37322.05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>19.5479090994</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13806.8798737089</v>
+      </c>
+      <c r="D52" t="n">
+        <v>25823.3082959709</v>
+      </c>
+      <c r="E52" t="n">
+        <v>34949.9935316268</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10642.7096060142</v>
+      </c>
+      <c r="G52" t="n">
+        <v>14399.3734122216</v>
+      </c>
+      <c r="H52" t="n">
+        <v>18804.1805331897</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7080.8355685452</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3975.0165665859</v>
+      </c>
+      <c r="K52" t="n">
+        <v>129501.8452969626</v>
+      </c>
+      <c r="L52" t="n">
+        <v>129501.8452969626</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1495.42</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6405.33</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10297.91</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5227.65</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3455.71</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6321.35</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3859.84</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1002.74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3288.79</v>
+      </c>
+      <c r="K53" t="n">
+        <v>41354.74</v>
+      </c>
+      <c r="L53" t="n">
+        <v>41354.73999999999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>407.23</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>147.39</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>589.27</v>
+      </c>
+      <c r="L54" t="n">
+        <v>589.27</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare insgesamt</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare Elektrizitätserzeugung</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K56" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6.950000000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>25758.8279090994</v>
+      </c>
+      <c r="C57" t="n">
+        <v>77935.06987370888</v>
+      </c>
+      <c r="D57" t="n">
+        <v>138747.6082959709</v>
+      </c>
+      <c r="E57" t="n">
+        <v>143349.9435316268</v>
+      </c>
+      <c r="F57" t="n">
+        <v>54704.5196060142</v>
+      </c>
+      <c r="G57" t="n">
+        <v>102043.7534122216</v>
+      </c>
+      <c r="H57" t="n">
+        <v>69657.93053318969</v>
+      </c>
+      <c r="I57" t="n">
+        <v>29561.5255685452</v>
+      </c>
+      <c r="J57" t="n">
+        <v>24229.9765665859</v>
+      </c>
+      <c r="K57" t="n">
+        <v>665989.1552969626</v>
+      </c>
+      <c r="L57" t="n">
+        <v>665989.1552969626</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_RES_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BAGGS_RES_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6788.46</v>
+      </c>
+      <c r="C66" t="n">
+        <v>20061.16</v>
+      </c>
+      <c r="D66" t="n">
+        <v>34238.24</v>
+      </c>
+      <c r="E66" t="n">
+        <v>37262.96</v>
+      </c>
+      <c r="F66" t="n">
+        <v>12909.66</v>
+      </c>
+      <c r="G66" t="n">
+        <v>34310.87</v>
+      </c>
+      <c r="H66" t="n">
+        <v>13716.28</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6197.95</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4821.65</v>
+      </c>
+      <c r="K66" t="n">
+        <v>170307.23</v>
+      </c>
+      <c r="L66" t="n">
+        <v>170307.23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Scheitholz</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3799.2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5221.81</v>
+      </c>
+      <c r="D67" t="n">
+        <v>14952.88</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9898</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3055.81</v>
+      </c>
+      <c r="G67" t="n">
+        <v>11227.55</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5589.23</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2265.55</v>
+      </c>
+      <c r="J67" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="K67" t="n">
+        <v>56705.93</v>
+      </c>
+      <c r="L67" t="n">
+        <v>56705.93</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4927.7</v>
+      </c>
+      <c r="D68" t="n">
+        <v>605.63</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7451.42</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2661.73</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9708.190000000001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25354.67</v>
+      </c>
+      <c r="L68" t="n">
+        <v>25354.67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>9092.84</v>
+      </c>
+      <c r="C69" t="n">
+        <v>22294.58</v>
+      </c>
+      <c r="D69" t="n">
+        <v>43530.73</v>
+      </c>
+      <c r="E69" t="n">
+        <v>40349.57</v>
+      </c>
+      <c r="F69" t="n">
+        <v>16819.3</v>
+      </c>
+      <c r="G69" t="n">
+        <v>21036.31</v>
+      </c>
+      <c r="H69" t="n">
+        <v>25073.17</v>
+      </c>
+      <c r="I69" t="n">
+        <v>10558.26</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5013.36</v>
+      </c>
+      <c r="K69" t="n">
+        <v>193768.12</v>
+      </c>
+      <c r="L69" t="n">
+        <v>193768.12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)_Ausnutzungsdauer (h)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3591.33</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3981.62</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5288.89</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4811.38</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3318.78</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4246.57</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2966.91</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2240.69</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5772.48</v>
+      </c>
+      <c r="K70" t="n">
+        <v>36218.65</v>
+      </c>
+      <c r="L70" t="n">
+        <v>36218.64999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>20.7315792354</v>
+      </c>
+      <c r="C71" t="n">
+        <v>14051.9046678186</v>
+      </c>
+      <c r="D71" t="n">
+        <v>25809.0353149134</v>
+      </c>
+      <c r="E71" t="n">
+        <v>34782.3980802672</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10794.3949179594</v>
+      </c>
+      <c r="G71" t="n">
+        <v>14724.7299888942</v>
+      </c>
+      <c r="H71" t="n">
+        <v>19498.7780048292</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7132.5735453918</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3979.3020068736</v>
+      </c>
+      <c r="K71" t="n">
+        <v>130793.8481061828</v>
+      </c>
+      <c r="L71" t="n">
+        <v>130793.8481061828</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1328.16</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7791.89</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9627.549999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5699.37</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2933.52</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5653.11</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2638.76</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1155.45</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3342.85</v>
+      </c>
+      <c r="K72" t="n">
+        <v>40170.66</v>
+      </c>
+      <c r="L72" t="n">
+        <v>40170.66</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>409.34</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="F73" t="n">
+        <v>58.95</v>
+      </c>
+      <c r="G73" t="n">
+        <v>330.49</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>829.1199999999999</v>
+      </c>
+      <c r="L73" t="n">
+        <v>829.1199999999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare insgesamt</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare Elektrizitätserzeugung</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K75" t="n">
+        <v>7.010000000000001</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.010000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>24622.2015792354</v>
+      </c>
+      <c r="C76" t="n">
+        <v>78741.55466781861</v>
+      </c>
+      <c r="D76" t="n">
+        <v>134054.1653149134</v>
+      </c>
+      <c r="E76" t="n">
+        <v>140286.3980802672</v>
+      </c>
+      <c r="F76" t="n">
+        <v>52553.62491795939</v>
+      </c>
+      <c r="G76" t="n">
+        <v>101238.6099888942</v>
+      </c>
+      <c r="H76" t="n">
+        <v>69484.5880048292</v>
+      </c>
+      <c r="I76" t="n">
+        <v>29551.7235453918</v>
+      </c>
+      <c r="J76" t="n">
+        <v>23625.7820068736</v>
+      </c>
+      <c r="K76" t="n">
+        <v>654158.6481061828</v>
+      </c>
+      <c r="L76" t="n">
+        <v>654158.6481061828</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Entwicklung_RES_Energetischer_Endverbrauch_Erneuerbare_(TJ)_2015_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>YEARS_RES_ENE_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7814.36</v>
+      </c>
+      <c r="C85" t="n">
+        <v>20584.74</v>
+      </c>
+      <c r="D85" t="n">
+        <v>37500.63</v>
+      </c>
+      <c r="E85" t="n">
+        <v>38495.07</v>
+      </c>
+      <c r="F85" t="n">
+        <v>14530.32</v>
+      </c>
+      <c r="G85" t="n">
+        <v>32806.12</v>
+      </c>
+      <c r="H85" t="n">
+        <v>13390.69</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6525.49</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5912.6</v>
+      </c>
+      <c r="K85" t="n">
+        <v>177560.02</v>
+      </c>
+      <c r="L85" t="n">
+        <v>177560.02</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7865.83</v>
+      </c>
+      <c r="C86" t="n">
+        <v>21736.08</v>
+      </c>
+      <c r="D86" t="n">
+        <v>37263.96</v>
+      </c>
+      <c r="E86" t="n">
+        <v>37710.17</v>
+      </c>
+      <c r="F86" t="n">
+        <v>14223.57</v>
+      </c>
+      <c r="G86" t="n">
+        <v>35063.38</v>
+      </c>
+      <c r="H86" t="n">
+        <v>12827.37</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6450.71</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5307.97</v>
+      </c>
+      <c r="K86" t="n">
+        <v>178449.04</v>
+      </c>
+      <c r="L86" t="n">
+        <v>178449.04</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B87" t="n">
+        <v>7903.82</v>
+      </c>
+      <c r="C87" t="n">
+        <v>21788.59</v>
+      </c>
+      <c r="D87" t="n">
+        <v>36918.57</v>
+      </c>
+      <c r="E87" t="n">
+        <v>38754.39</v>
+      </c>
+      <c r="F87" t="n">
+        <v>14218.71</v>
+      </c>
+      <c r="G87" t="n">
+        <v>35198.52</v>
+      </c>
+      <c r="H87" t="n">
+        <v>13371.59</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6454.49</v>
+      </c>
+      <c r="J87" t="n">
+        <v>4835.2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>179443.88</v>
+      </c>
+      <c r="L87" t="n">
+        <v>179443.88</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6788.46</v>
+      </c>
+      <c r="C88" t="n">
+        <v>20061.16</v>
+      </c>
+      <c r="D88" t="n">
+        <v>34238.24</v>
+      </c>
+      <c r="E88" t="n">
+        <v>37262.96</v>
+      </c>
+      <c r="F88" t="n">
+        <v>12909.66</v>
+      </c>
+      <c r="G88" t="n">
+        <v>34310.87</v>
+      </c>
+      <c r="H88" t="n">
+        <v>13716.28</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6197.95</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4821.65</v>
+      </c>
+      <c r="K88" t="n">
+        <v>170307.23</v>
+      </c>
+      <c r="L88" t="n">
+        <v>170307.23</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>30372.47</v>
+      </c>
+      <c r="C89" t="n">
+        <v>84170.57000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>145921.4</v>
+      </c>
+      <c r="E89" t="n">
+        <v>152222.59</v>
+      </c>
+      <c r="F89" t="n">
+        <v>55882.25999999999</v>
+      </c>
+      <c r="G89" t="n">
+        <v>137378.89</v>
+      </c>
+      <c r="H89" t="n">
+        <v>53305.93</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25628.64</v>
+      </c>
+      <c r="J89" t="n">
+        <v>20877.42</v>
+      </c>
+      <c r="K89" t="n">
+        <v>705760.1699999999</v>
+      </c>
+      <c r="L89" t="n">
+        <v>705760.1699999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Entwicklung_RES_Energetischer_Endverbrauch_Erneuerbare_(TJ)_Scheitholz_2015_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>YEARS_RES_ENE_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4048.04</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5136.39</v>
+      </c>
+      <c r="D98" t="n">
+        <v>16489.38</v>
+      </c>
+      <c r="E98" t="n">
+        <v>9455.120000000001</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4054.16</v>
+      </c>
+      <c r="G98" t="n">
+        <v>12109.61</v>
+      </c>
+      <c r="H98" t="n">
+        <v>5530.88</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2908.97</v>
+      </c>
+      <c r="J98" t="n">
+        <v>858.47</v>
+      </c>
+      <c r="K98" t="n">
+        <v>60591.02</v>
+      </c>
+      <c r="L98" t="n">
+        <v>60591.02</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4201.77</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4949.88</v>
+      </c>
+      <c r="D99" t="n">
+        <v>17335.48</v>
+      </c>
+      <c r="E99" t="n">
+        <v>9846.58</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4173.52</v>
+      </c>
+      <c r="G99" t="n">
+        <v>12135.89</v>
+      </c>
+      <c r="H99" t="n">
+        <v>5521.72</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3006.87</v>
+      </c>
+      <c r="J99" t="n">
+        <v>907.4</v>
+      </c>
+      <c r="K99" t="n">
+        <v>62079.11</v>
+      </c>
+      <c r="L99" t="n">
+        <v>62079.11</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4066.68</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5546.64</v>
+      </c>
+      <c r="D100" t="n">
+        <v>16525.28</v>
+      </c>
+      <c r="E100" t="n">
+        <v>11015.84</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3459.5</v>
+      </c>
+      <c r="G100" t="n">
+        <v>12190.91</v>
+      </c>
+      <c r="H100" t="n">
+        <v>6132.33</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2541.99</v>
+      </c>
+      <c r="J100" t="n">
+        <v>742.6799999999999</v>
+      </c>
+      <c r="K100" t="n">
+        <v>62221.85</v>
+      </c>
+      <c r="L100" t="n">
+        <v>62221.85000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3799.2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5221.81</v>
+      </c>
+      <c r="D101" t="n">
+        <v>14952.88</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9898</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3055.81</v>
+      </c>
+      <c r="G101" t="n">
+        <v>11227.55</v>
+      </c>
+      <c r="H101" t="n">
+        <v>5589.23</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2265.55</v>
+      </c>
+      <c r="J101" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="K101" t="n">
+        <v>56705.93</v>
+      </c>
+      <c r="L101" t="n">
+        <v>56705.93</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>16115.69</v>
+      </c>
+      <c r="C102" t="n">
+        <v>20854.72</v>
+      </c>
+      <c r="D102" t="n">
+        <v>65303.02</v>
+      </c>
+      <c r="E102" t="n">
+        <v>40215.54</v>
+      </c>
+      <c r="F102" t="n">
+        <v>14742.99</v>
+      </c>
+      <c r="G102" t="n">
+        <v>47663.96000000001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>22774.16</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10723.38</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3204.45</v>
+      </c>
+      <c r="K102" t="n">
+        <v>241597.91</v>
+      </c>
+      <c r="L102" t="n">
+        <v>241597.91</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Entwicklung_RES_Energetischer_Endverbrauch_Erneuerbare_(TJ)_Laugen_2015_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>YEARS_RES_ENE_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3681.42</v>
+      </c>
+      <c r="D111" t="n">
+        <v>632.22</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7528.82</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2299.67</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5777.13</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>19919.26</v>
+      </c>
+      <c r="L111" t="n">
+        <v>19919.26</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5319.54</v>
+      </c>
+      <c r="D112" t="n">
+        <v>613.9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7463.23</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2310.38</v>
+      </c>
+      <c r="G112" t="n">
+        <v>8930.549999999999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>24637.6</v>
+      </c>
+      <c r="L112" t="n">
+        <v>24637.6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4980.33</v>
+      </c>
+      <c r="D113" t="n">
+        <v>590.28</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7480.83</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2501.14</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9198.75</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>24751.33</v>
+      </c>
+      <c r="L113" t="n">
+        <v>24751.33</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4927.7</v>
+      </c>
+      <c r="D114" t="n">
+        <v>605.63</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7451.42</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2661.73</v>
+      </c>
+      <c r="G114" t="n">
+        <v>9708.190000000001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>25354.67</v>
+      </c>
+      <c r="L114" t="n">
+        <v>25354.67</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>18908.99</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2442.03</v>
+      </c>
+      <c r="E115" t="n">
+        <v>29924.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9772.92</v>
+      </c>
+      <c r="G115" t="n">
+        <v>33614.62</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>94662.86</v>
+      </c>
+      <c r="L115" t="n">
+        <v>94662.86</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Entwicklung_RES_Elektrische_Energie_Produktion_erneuerbar_(TJ)_2015_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>YEARS_RES_ELE_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B124" t="n">
+        <v>8539.889999999999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>20557.95</v>
+      </c>
+      <c r="D124" t="n">
+        <v>39639.73</v>
+      </c>
+      <c r="E124" t="n">
+        <v>40460.24</v>
+      </c>
+      <c r="F124" t="n">
+        <v>17557.19</v>
+      </c>
+      <c r="G124" t="n">
+        <v>18228.04</v>
+      </c>
+      <c r="H124" t="n">
+        <v>24869.26</v>
+      </c>
+      <c r="I124" t="n">
+        <v>10338.56</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4986.62</v>
+      </c>
+      <c r="K124" t="n">
+        <v>185177.48</v>
+      </c>
+      <c r="L124" t="n">
+        <v>185177.48</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B125" t="n">
+        <v>8691.860000000001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>21870</v>
+      </c>
+      <c r="D125" t="n">
+        <v>41716.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>39978.21</v>
+      </c>
+      <c r="F125" t="n">
+        <v>17409.57</v>
+      </c>
+      <c r="G125" t="n">
+        <v>19526.12</v>
+      </c>
+      <c r="H125" t="n">
+        <v>24795.85</v>
+      </c>
+      <c r="I125" t="n">
+        <v>10093.4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5044.42</v>
+      </c>
+      <c r="K125" t="n">
+        <v>189125.83</v>
+      </c>
+      <c r="L125" t="n">
+        <v>189125.83</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9038.01</v>
+      </c>
+      <c r="C126" t="n">
+        <v>21832.9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>42664.35</v>
+      </c>
+      <c r="E126" t="n">
+        <v>40439.36</v>
+      </c>
+      <c r="F126" t="n">
+        <v>17013.68</v>
+      </c>
+      <c r="G126" t="n">
+        <v>20178.07</v>
+      </c>
+      <c r="H126" t="n">
+        <v>24573.69</v>
+      </c>
+      <c r="I126" t="n">
+        <v>10014.6</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5039.19</v>
+      </c>
+      <c r="K126" t="n">
+        <v>190793.85</v>
+      </c>
+      <c r="L126" t="n">
+        <v>190793.85</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9092.84</v>
+      </c>
+      <c r="C127" t="n">
+        <v>22294.58</v>
+      </c>
+      <c r="D127" t="n">
+        <v>43530.73</v>
+      </c>
+      <c r="E127" t="n">
+        <v>40349.57</v>
+      </c>
+      <c r="F127" t="n">
+        <v>16819.3</v>
+      </c>
+      <c r="G127" t="n">
+        <v>21036.31</v>
+      </c>
+      <c r="H127" t="n">
+        <v>25073.17</v>
+      </c>
+      <c r="I127" t="n">
+        <v>10558.26</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5013.36</v>
+      </c>
+      <c r="K127" t="n">
+        <v>193768.12</v>
+      </c>
+      <c r="L127" t="n">
+        <v>193768.12</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>35362.60000000001</v>
+      </c>
+      <c r="C128" t="n">
+        <v>86555.42999999999</v>
+      </c>
+      <c r="D128" t="n">
+        <v>167551.21</v>
+      </c>
+      <c r="E128" t="n">
+        <v>161227.38</v>
+      </c>
+      <c r="F128" t="n">
+        <v>68799.73999999999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>78968.54000000001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>99311.97</v>
+      </c>
+      <c r="I128" t="n">
+        <v>41004.82</v>
+      </c>
+      <c r="J128" t="n">
+        <v>20083.59</v>
+      </c>
+      <c r="K128" t="n">
+        <v>758865.28</v>
+      </c>
+      <c r="L128" t="n">
+        <v>758865.2800000001</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Entwicklung_RES_Elektrische_Energie_Produktion_erneuerbar_(TJ)_Wasserkraft_ohne_Pumpe_normalisiert_(MWh)_Ausnutzungsdauer_(h)_2015_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>YEARS_RES_ELE_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3398.88</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3481.16</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5298.59</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4881.63</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3388.45</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4290.89</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3008.42</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2204.93</v>
+      </c>
+      <c r="J137" t="n">
+        <v>5812.52</v>
+      </c>
+      <c r="K137" t="n">
+        <v>35765.47</v>
+      </c>
+      <c r="L137" t="n">
+        <v>35765.47</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3751.02</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3903.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5926.23</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5411.44</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3335.61</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4700</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2899.95</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2400.94</v>
+      </c>
+      <c r="J138" t="n">
+        <v>6353.24</v>
+      </c>
+      <c r="K138" t="n">
+        <v>38682.03</v>
+      </c>
+      <c r="L138" t="n">
+        <v>38682.03</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3233.85</v>
+      </c>
+      <c r="C139" t="n">
+        <v>3165.63</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5926.72</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5446.28</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3411.58</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4408.61</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2914.85</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2465.67</v>
+      </c>
+      <c r="J139" t="n">
+        <v>6348.86</v>
+      </c>
+      <c r="K139" t="n">
+        <v>37322.05</v>
+      </c>
+      <c r="L139" t="n">
+        <v>37322.05</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3591.33</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3981.62</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5288.89</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4811.38</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3318.78</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4246.57</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2966.91</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2240.69</v>
+      </c>
+      <c r="J140" t="n">
+        <v>5772.48</v>
+      </c>
+      <c r="K140" t="n">
+        <v>36218.65</v>
+      </c>
+      <c r="L140" t="n">
+        <v>36218.64999999999</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>13975.08</v>
+      </c>
+      <c r="C141" t="n">
+        <v>14532.01</v>
+      </c>
+      <c r="D141" t="n">
+        <v>22440.43</v>
+      </c>
+      <c r="E141" t="n">
+        <v>20550.73</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13454.42</v>
+      </c>
+      <c r="G141" t="n">
+        <v>17646.07</v>
+      </c>
+      <c r="H141" t="n">
+        <v>11790.13</v>
+      </c>
+      <c r="I141" t="n">
+        <v>9312.23</v>
+      </c>
+      <c r="J141" t="n">
+        <v>24287.1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>147988.2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>147988.2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Entwicklung_RES_Elektrische_Energie_Produktion_erneuerbar_(TJ)_Wasserkraft_ohne_Pumpe_normalisiert_(MWh)_2015_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>YEARS_RES_ELE_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B150" t="n">
+        <v>17.9533023879</v>
+      </c>
+      <c r="C150" t="n">
+        <v>13825.5047865</v>
+      </c>
+      <c r="D150" t="n">
+        <v>26330.2895150922</v>
+      </c>
+      <c r="E150" t="n">
+        <v>35424.3685264689</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10854.0662566941</v>
+      </c>
+      <c r="G150" t="n">
+        <v>14109.3236133234</v>
+      </c>
+      <c r="H150" t="n">
+        <v>19068.4959105432</v>
+      </c>
+      <c r="I150" t="n">
+        <v>7145.381698656301</v>
+      </c>
+      <c r="J150" t="n">
+        <v>4046.1053181747</v>
+      </c>
+      <c r="K150" t="n">
+        <v>130821.4889278407</v>
+      </c>
+      <c r="L150" t="n">
+        <v>130821.4889278407</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B151" t="n">
+        <v>18.032969724</v>
+      </c>
+      <c r="C151" t="n">
+        <v>13828.3654666608</v>
+      </c>
+      <c r="D151" t="n">
+        <v>26238.7876016145</v>
+      </c>
+      <c r="E151" t="n">
+        <v>35325.7155605838</v>
+      </c>
+      <c r="F151" t="n">
+        <v>10818.0773566041</v>
+      </c>
+      <c r="G151" t="n">
+        <v>14335.0574281926</v>
+      </c>
+      <c r="H151" t="n">
+        <v>18945.379600521</v>
+      </c>
+      <c r="I151" t="n">
+        <v>7060.2280082763</v>
+      </c>
+      <c r="J151" t="n">
+        <v>4004.9639970219</v>
+      </c>
+      <c r="K151" t="n">
+        <v>130574.607989199</v>
+      </c>
+      <c r="L151" t="n">
+        <v>130574.607989199</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B152" t="n">
+        <v>19.5479090994</v>
+      </c>
+      <c r="C152" t="n">
+        <v>13806.8798737089</v>
+      </c>
+      <c r="D152" t="n">
+        <v>25823.3082959709</v>
+      </c>
+      <c r="E152" t="n">
+        <v>34949.9935316268</v>
+      </c>
+      <c r="F152" t="n">
+        <v>10642.7096060142</v>
+      </c>
+      <c r="G152" t="n">
+        <v>14399.3734122216</v>
+      </c>
+      <c r="H152" t="n">
+        <v>18804.1805331897</v>
+      </c>
+      <c r="I152" t="n">
+        <v>7080.8355685452</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3975.0165665859</v>
+      </c>
+      <c r="K152" t="n">
+        <v>129501.8452969626</v>
+      </c>
+      <c r="L152" t="n">
+        <v>129501.8452969626</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B153" t="n">
+        <v>20.7315792354</v>
+      </c>
+      <c r="C153" t="n">
+        <v>14051.9046678186</v>
+      </c>
+      <c r="D153" t="n">
+        <v>25809.0353149134</v>
+      </c>
+      <c r="E153" t="n">
+        <v>34782.3980802672</v>
+      </c>
+      <c r="F153" t="n">
+        <v>10794.3949179594</v>
+      </c>
+      <c r="G153" t="n">
+        <v>14724.7299888942</v>
+      </c>
+      <c r="H153" t="n">
+        <v>19498.7780048292</v>
+      </c>
+      <c r="I153" t="n">
+        <v>7132.5735453918</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3979.3020068736</v>
+      </c>
+      <c r="K153" t="n">
+        <v>130793.8481061828</v>
+      </c>
+      <c r="L153" t="n">
+        <v>130793.8481061828</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>76.2657604467</v>
+      </c>
+      <c r="C154" t="n">
+        <v>55512.6547946883</v>
+      </c>
+      <c r="D154" t="n">
+        <v>104201.420727591</v>
+      </c>
+      <c r="E154" t="n">
+        <v>140482.4756989467</v>
+      </c>
+      <c r="F154" t="n">
+        <v>43109.2481372718</v>
+      </c>
+      <c r="G154" t="n">
+        <v>57568.4844426318</v>
+      </c>
+      <c r="H154" t="n">
+        <v>76316.8340490831</v>
+      </c>
+      <c r="I154" t="n">
+        <v>28419.0188208696</v>
+      </c>
+      <c r="J154" t="n">
+        <v>16005.3878886561</v>
+      </c>
+      <c r="K154" t="n">
+        <v>521691.790320185</v>
+      </c>
+      <c r="L154" t="n">
+        <v>521691.790320185</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Entwicklung_RES_Fernwärme_Produktion_erneuerbar_(TJ)_2015_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>YEARS_RES_FER_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1395.94</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4882.55</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9937.83</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5476.61</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3561.14</v>
+      </c>
+      <c r="G163" t="n">
+        <v>5502.24</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3605.02</v>
+      </c>
+      <c r="I163" t="n">
+        <v>986.48</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3301.19</v>
+      </c>
+      <c r="K163" t="n">
+        <v>38649</v>
+      </c>
+      <c r="L163" t="n">
+        <v>38649</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1265.28</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5000.24</v>
+      </c>
+      <c r="D164" t="n">
+        <v>10191.24</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5573.26</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3486.34</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5585.77</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3612.73</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1000.99</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3270.49</v>
+      </c>
+      <c r="K164" t="n">
+        <v>38986.34</v>
+      </c>
+      <c r="L164" t="n">
+        <v>38986.34</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1495.42</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6405.33</v>
+      </c>
+      <c r="D165" t="n">
+        <v>10297.91</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5227.65</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3455.71</v>
+      </c>
+      <c r="G165" t="n">
+        <v>6321.35</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3859.84</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1002.74</v>
+      </c>
+      <c r="J165" t="n">
+        <v>3288.79</v>
+      </c>
+      <c r="K165" t="n">
+        <v>41354.74</v>
+      </c>
+      <c r="L165" t="n">
+        <v>41354.73999999999</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1328.16</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7791.89</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9627.549999999999</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5699.37</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2933.52</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5653.11</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2638.76</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1155.45</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3342.85</v>
+      </c>
+      <c r="K166" t="n">
+        <v>40170.66</v>
+      </c>
+      <c r="L166" t="n">
+        <v>40170.66</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>5484.8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>24080.01</v>
+      </c>
+      <c r="D167" t="n">
+        <v>40054.53</v>
+      </c>
+      <c r="E167" t="n">
+        <v>21976.89</v>
+      </c>
+      <c r="F167" t="n">
+        <v>13436.71</v>
+      </c>
+      <c r="G167" t="n">
+        <v>23062.47</v>
+      </c>
+      <c r="H167" t="n">
+        <v>13716.35</v>
+      </c>
+      <c r="I167" t="n">
+        <v>4145.66</v>
+      </c>
+      <c r="J167" t="n">
+        <v>13203.32</v>
+      </c>
+      <c r="K167" t="n">
+        <v>159160.74</v>
+      </c>
+      <c r="L167" t="n">
+        <v>159160.74</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Entwicklung_RES_Fernwärme_Produktion_erneuerbar_(TJ)_Laugen_2015_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>YEARS_RES_FER_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>404.8</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>77.36</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>509.61</v>
+      </c>
+      <c r="L176" t="n">
+        <v>509.61</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>359.9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>478.56</v>
+      </c>
+      <c r="L177" t="n">
+        <v>478.56</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>407.23</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>147.39</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>589.27</v>
+      </c>
+      <c r="L178" t="n">
+        <v>589.27</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>409.34</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="F179" t="n">
+        <v>58.95</v>
+      </c>
+      <c r="G179" t="n">
+        <v>330.49</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>829.1199999999999</v>
+      </c>
+      <c r="L179" t="n">
+        <v>829.1199999999999</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1581.27</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>121.29</v>
+      </c>
+      <c r="F180" t="n">
+        <v>58.95</v>
+      </c>
+      <c r="G180" t="n">
+        <v>645.05</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2406.56</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2406.56</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Entwicklung_RES_Anteil_anrechenbare_Erneuerbare_insgesamt_2015_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>YEARS_RES_ANT_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L189" t="n">
+        <v>3.450000000000001</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="L190" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="L191" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K192" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="L192" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K193" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="L193" t="n">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Entwicklung_RES_Anteil_anrechenbare_Erneuerbare_Elektrizitätserzeugung_2015_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>YEARS_RES_ANT_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K202" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="L202" t="n">
+        <v>6.990000000000001</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K203" t="n">
+        <v>7</v>
+      </c>
+      <c r="L203" t="n">
+        <v>7.000000000000001</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K204" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="L204" t="n">
+        <v>6.950000000000001</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K205" t="n">
+        <v>7.010000000000001</v>
+      </c>
+      <c r="L205" t="n">
+        <v>7.010000000000001</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>4</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F206" t="n">
+        <v>4</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H206" t="n">
+        <v>4</v>
+      </c>
+      <c r="I206" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K206" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="L206" t="n">
+        <v>27.95000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -432,14 +5779,2251 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:L76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_RES_2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BAGGS_RES_15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7814.36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20584.74</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37500.63</v>
+      </c>
+      <c r="E9" t="n">
+        <v>38495.07</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14530.32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>32806.12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13390.69</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6525.49</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5912.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>177560.02</v>
+      </c>
+      <c r="L9" t="n">
+        <v>177560.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Scheitholz</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4048.04</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5136.39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16489.38</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9455.120000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4054.16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12109.61</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5530.88</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2908.97</v>
+      </c>
+      <c r="J10" t="n">
+        <v>858.47</v>
+      </c>
+      <c r="K10" t="n">
+        <v>60591.02</v>
+      </c>
+      <c r="L10" t="n">
+        <v>60591.02</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3681.42</v>
+      </c>
+      <c r="D11" t="n">
+        <v>632.22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7528.82</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2299.67</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5777.13</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19919.26</v>
+      </c>
+      <c r="L11" t="n">
+        <v>19919.26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8539.889999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20557.95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>39639.73</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40460.24</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17557.19</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18228.04</v>
+      </c>
+      <c r="H12" t="n">
+        <v>24869.26</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10338.56</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4986.62</v>
+      </c>
+      <c r="K12" t="n">
+        <v>185177.48</v>
+      </c>
+      <c r="L12" t="n">
+        <v>185177.48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)_Ausnutzungsdauer (h)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3398.88</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3481.16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5298.59</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4881.63</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3388.45</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4290.89</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3008.42</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2204.93</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5812.52</v>
+      </c>
+      <c r="K13" t="n">
+        <v>35765.47</v>
+      </c>
+      <c r="L13" t="n">
+        <v>35765.47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17.9533023879</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13825.5047865</v>
+      </c>
+      <c r="D14" t="n">
+        <v>26330.2895150922</v>
+      </c>
+      <c r="E14" t="n">
+        <v>35424.3685264689</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10854.0662566941</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14109.3236133234</v>
+      </c>
+      <c r="H14" t="n">
+        <v>19068.4959105432</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7145.381698656301</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4046.1053181747</v>
+      </c>
+      <c r="K14" t="n">
+        <v>130821.4889278407</v>
+      </c>
+      <c r="L14" t="n">
+        <v>130821.4889278407</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1395.94</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4882.55</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9937.83</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5476.61</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3561.14</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5502.24</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3605.02</v>
+      </c>
+      <c r="I15" t="n">
+        <v>986.48</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3301.19</v>
+      </c>
+      <c r="K15" t="n">
+        <v>38649</v>
+      </c>
+      <c r="L15" t="n">
+        <v>38649</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>404.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>77.36</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>509.61</v>
+      </c>
+      <c r="L16" t="n">
+        <v>509.61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare insgesamt</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.450000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare Elektrizitätserzeugung</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.990000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>25216.5633023879</v>
+      </c>
+      <c r="C19" t="n">
+        <v>72556.0447865</v>
+      </c>
+      <c r="D19" t="n">
+        <v>135829.8195150922</v>
+      </c>
+      <c r="E19" t="n">
+        <v>141750.2985264689</v>
+      </c>
+      <c r="F19" t="n">
+        <v>56246.5062566941</v>
+      </c>
+      <c r="G19" t="n">
+        <v>92901.4436133234</v>
+      </c>
+      <c r="H19" t="n">
+        <v>69474.2259105432</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30111.1316986563</v>
+      </c>
+      <c r="J19" t="n">
+        <v>24917.7553181747</v>
+      </c>
+      <c r="K19" t="n">
+        <v>649003.7889278407</v>
+      </c>
+      <c r="L19" t="n">
+        <v>649003.7889278407</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_RES_2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BAGGS_RES_16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7865.83</v>
+      </c>
+      <c r="C28" t="n">
+        <v>21736.08</v>
+      </c>
+      <c r="D28" t="n">
+        <v>37263.96</v>
+      </c>
+      <c r="E28" t="n">
+        <v>37710.17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>14223.57</v>
+      </c>
+      <c r="G28" t="n">
+        <v>35063.38</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12827.37</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6450.71</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5307.97</v>
+      </c>
+      <c r="K28" t="n">
+        <v>178449.04</v>
+      </c>
+      <c r="L28" t="n">
+        <v>178449.04</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Scheitholz</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4201.77</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4949.88</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17335.48</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9846.58</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4173.52</v>
+      </c>
+      <c r="G29" t="n">
+        <v>12135.89</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5521.72</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3006.87</v>
+      </c>
+      <c r="J29" t="n">
+        <v>907.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>62079.11</v>
+      </c>
+      <c r="L29" t="n">
+        <v>62079.11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5319.54</v>
+      </c>
+      <c r="D30" t="n">
+        <v>613.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7463.23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2310.38</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8930.549999999999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>24637.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>24637.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8691.860000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>21870</v>
+      </c>
+      <c r="D31" t="n">
+        <v>41716.4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>39978.21</v>
+      </c>
+      <c r="F31" t="n">
+        <v>17409.57</v>
+      </c>
+      <c r="G31" t="n">
+        <v>19526.12</v>
+      </c>
+      <c r="H31" t="n">
+        <v>24795.85</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10093.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5044.42</v>
+      </c>
+      <c r="K31" t="n">
+        <v>189125.83</v>
+      </c>
+      <c r="L31" t="n">
+        <v>189125.83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)_Ausnutzungsdauer (h)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3751.02</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3903.6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5926.23</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5411.44</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3335.61</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4700</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2899.95</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2400.94</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6353.24</v>
+      </c>
+      <c r="K32" t="n">
+        <v>38682.03</v>
+      </c>
+      <c r="L32" t="n">
+        <v>38682.03</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>18.032969724</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13828.3654666608</v>
+      </c>
+      <c r="D33" t="n">
+        <v>26238.7876016145</v>
+      </c>
+      <c r="E33" t="n">
+        <v>35325.7155605838</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10818.0773566041</v>
+      </c>
+      <c r="G33" t="n">
+        <v>14335.0574281926</v>
+      </c>
+      <c r="H33" t="n">
+        <v>18945.379600521</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7060.2280082763</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4004.9639970219</v>
+      </c>
+      <c r="K33" t="n">
+        <v>130574.607989199</v>
+      </c>
+      <c r="L33" t="n">
+        <v>130574.607989199</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1265.28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5000.24</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10191.24</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5573.26</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3486.34</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5585.77</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3612.73</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1000.99</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3270.49</v>
+      </c>
+      <c r="K34" t="n">
+        <v>38986.34</v>
+      </c>
+      <c r="L34" t="n">
+        <v>38986.34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>359.9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>478.56</v>
+      </c>
+      <c r="L35" t="n">
+        <v>478.56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare insgesamt</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare Elektrizitätserzeugung</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>7.000000000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>25795.282969724</v>
+      </c>
+      <c r="C38" t="n">
+        <v>76969.1554666608</v>
+      </c>
+      <c r="D38" t="n">
+        <v>139287.1876016145</v>
+      </c>
+      <c r="E38" t="n">
+        <v>141338.4055605838</v>
+      </c>
+      <c r="F38" t="n">
+        <v>55758.56735660409</v>
+      </c>
+      <c r="G38" t="n">
+        <v>100367.3574281926</v>
+      </c>
+      <c r="H38" t="n">
+        <v>68604.459600521</v>
+      </c>
+      <c r="I38" t="n">
+        <v>30014.4080082763</v>
+      </c>
+      <c r="J38" t="n">
+        <v>24888.7339970219</v>
+      </c>
+      <c r="K38" t="n">
+        <v>663023.5579891989</v>
+      </c>
+      <c r="L38" t="n">
+        <v>663023.5579891989</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_RES_2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BAGGS_RES_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7903.82</v>
+      </c>
+      <c r="C47" t="n">
+        <v>21788.59</v>
+      </c>
+      <c r="D47" t="n">
+        <v>36918.57</v>
+      </c>
+      <c r="E47" t="n">
+        <v>38754.39</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14218.71</v>
+      </c>
+      <c r="G47" t="n">
+        <v>35198.52</v>
+      </c>
+      <c r="H47" t="n">
+        <v>13371.59</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6454.49</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4835.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>179443.88</v>
+      </c>
+      <c r="L47" t="n">
+        <v>179443.88</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Scheitholz</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4066.68</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5546.64</v>
+      </c>
+      <c r="D48" t="n">
+        <v>16525.28</v>
+      </c>
+      <c r="E48" t="n">
+        <v>11015.84</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3459.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>12190.91</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6132.33</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2541.99</v>
+      </c>
+      <c r="J48" t="n">
+        <v>742.6799999999999</v>
+      </c>
+      <c r="K48" t="n">
+        <v>62221.85</v>
+      </c>
+      <c r="L48" t="n">
+        <v>62221.85000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4980.33</v>
+      </c>
+      <c r="D49" t="n">
+        <v>590.28</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7480.83</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2501.14</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9198.75</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>24751.33</v>
+      </c>
+      <c r="L49" t="n">
+        <v>24751.33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9038.01</v>
+      </c>
+      <c r="C50" t="n">
+        <v>21832.9</v>
+      </c>
+      <c r="D50" t="n">
+        <v>42664.35</v>
+      </c>
+      <c r="E50" t="n">
+        <v>40439.36</v>
+      </c>
+      <c r="F50" t="n">
+        <v>17013.68</v>
+      </c>
+      <c r="G50" t="n">
+        <v>20178.07</v>
+      </c>
+      <c r="H50" t="n">
+        <v>24573.69</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10014.6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5039.19</v>
+      </c>
+      <c r="K50" t="n">
+        <v>190793.85</v>
+      </c>
+      <c r="L50" t="n">
+        <v>190793.85</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)_Ausnutzungsdauer (h)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3233.85</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3165.63</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5926.72</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5446.28</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3411.58</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4408.61</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2914.85</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2465.67</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6348.86</v>
+      </c>
+      <c r="K51" t="n">
+        <v>37322.05</v>
+      </c>
+      <c r="L51" t="n">
+        <v>37322.05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>19.5479090994</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13806.8798737089</v>
+      </c>
+      <c r="D52" t="n">
+        <v>25823.3082959709</v>
+      </c>
+      <c r="E52" t="n">
+        <v>34949.9935316268</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10642.7096060142</v>
+      </c>
+      <c r="G52" t="n">
+        <v>14399.3734122216</v>
+      </c>
+      <c r="H52" t="n">
+        <v>18804.1805331897</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7080.8355685452</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3975.0165665859</v>
+      </c>
+      <c r="K52" t="n">
+        <v>129501.8452969626</v>
+      </c>
+      <c r="L52" t="n">
+        <v>129501.8452969626</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1495.42</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6405.33</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10297.91</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5227.65</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3455.71</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6321.35</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3859.84</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1002.74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3288.79</v>
+      </c>
+      <c r="K53" t="n">
+        <v>41354.74</v>
+      </c>
+      <c r="L53" t="n">
+        <v>41354.73999999999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>407.23</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>147.39</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>589.27</v>
+      </c>
+      <c r="L54" t="n">
+        <v>589.27</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare insgesamt</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare Elektrizitätserzeugung</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K56" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6.950000000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>25758.8279090994</v>
+      </c>
+      <c r="C57" t="n">
+        <v>77935.06987370888</v>
+      </c>
+      <c r="D57" t="n">
+        <v>138747.6082959709</v>
+      </c>
+      <c r="E57" t="n">
+        <v>143349.9435316268</v>
+      </c>
+      <c r="F57" t="n">
+        <v>54704.5196060142</v>
+      </c>
+      <c r="G57" t="n">
+        <v>102043.7534122216</v>
+      </c>
+      <c r="H57" t="n">
+        <v>69657.93053318969</v>
+      </c>
+      <c r="I57" t="n">
+        <v>29561.5255685452</v>
+      </c>
+      <c r="J57" t="n">
+        <v>24229.9765665859</v>
+      </c>
+      <c r="K57" t="n">
+        <v>665989.1552969626</v>
+      </c>
+      <c r="L57" t="n">
+        <v>665989.1552969626</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Bilanz_Aggregate_RES_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2020-09-03 23:51:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BAGGS_RES_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BAGG_0</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Bgl</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ktn</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Noe</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Ooe</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sbg</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Stk</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Tir</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Vor</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Wie</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6788.46</v>
+      </c>
+      <c r="C66" t="n">
+        <v>20061.16</v>
+      </c>
+      <c r="D66" t="n">
+        <v>34238.24</v>
+      </c>
+      <c r="E66" t="n">
+        <v>37262.96</v>
+      </c>
+      <c r="F66" t="n">
+        <v>12909.66</v>
+      </c>
+      <c r="G66" t="n">
+        <v>34310.87</v>
+      </c>
+      <c r="H66" t="n">
+        <v>13716.28</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6197.95</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4821.65</v>
+      </c>
+      <c r="K66" t="n">
+        <v>170307.23</v>
+      </c>
+      <c r="L66" t="n">
+        <v>170307.23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Scheitholz</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3799.2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5221.81</v>
+      </c>
+      <c r="D67" t="n">
+        <v>14952.88</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9898</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3055.81</v>
+      </c>
+      <c r="G67" t="n">
+        <v>11227.55</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5589.23</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2265.55</v>
+      </c>
+      <c r="J67" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="K67" t="n">
+        <v>56705.93</v>
+      </c>
+      <c r="L67" t="n">
+        <v>56705.93</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Energetischer Endverbrauch Erneuerbare (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4927.7</v>
+      </c>
+      <c r="D68" t="n">
+        <v>605.63</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7451.42</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2661.73</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9708.190000000001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25354.67</v>
+      </c>
+      <c r="L68" t="n">
+        <v>25354.67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>9092.84</v>
+      </c>
+      <c r="C69" t="n">
+        <v>22294.58</v>
+      </c>
+      <c r="D69" t="n">
+        <v>43530.73</v>
+      </c>
+      <c r="E69" t="n">
+        <v>40349.57</v>
+      </c>
+      <c r="F69" t="n">
+        <v>16819.3</v>
+      </c>
+      <c r="G69" t="n">
+        <v>21036.31</v>
+      </c>
+      <c r="H69" t="n">
+        <v>25073.17</v>
+      </c>
+      <c r="I69" t="n">
+        <v>10558.26</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5013.36</v>
+      </c>
+      <c r="K69" t="n">
+        <v>193768.12</v>
+      </c>
+      <c r="L69" t="n">
+        <v>193768.12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)_Ausnutzungsdauer (h)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3591.33</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3981.62</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5288.89</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4811.38</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3318.78</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4246.57</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2966.91</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2240.69</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5772.48</v>
+      </c>
+      <c r="K70" t="n">
+        <v>36218.65</v>
+      </c>
+      <c r="L70" t="n">
+        <v>36218.64999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Elektrische Energie Produktion erneuerbar (TJ)_Wasserkraft ohne Pumpe normalisiert (MWh)</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>20.7315792354</v>
+      </c>
+      <c r="C71" t="n">
+        <v>14051.9046678186</v>
+      </c>
+      <c r="D71" t="n">
+        <v>25809.0353149134</v>
+      </c>
+      <c r="E71" t="n">
+        <v>34782.3980802672</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10794.3949179594</v>
+      </c>
+      <c r="G71" t="n">
+        <v>14724.7299888942</v>
+      </c>
+      <c r="H71" t="n">
+        <v>19498.7780048292</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7132.5735453918</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3979.3020068736</v>
+      </c>
+      <c r="K71" t="n">
+        <v>130793.8481061828</v>
+      </c>
+      <c r="L71" t="n">
+        <v>130793.8481061828</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1328.16</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7791.89</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9627.549999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5699.37</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2933.52</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5653.11</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2638.76</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1155.45</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3342.85</v>
+      </c>
+      <c r="K72" t="n">
+        <v>40170.66</v>
+      </c>
+      <c r="L72" t="n">
+        <v>40170.66</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Fernwärme Produktion erneuerbar (TJ)_Laugen</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>409.34</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="F73" t="n">
+        <v>58.95</v>
+      </c>
+      <c r="G73" t="n">
+        <v>330.49</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>829.1199999999999</v>
+      </c>
+      <c r="L73" t="n">
+        <v>829.1199999999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare insgesamt</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Anteil anrechenbare Erneuerbare Elektrizitätserzeugung</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K75" t="n">
+        <v>7.010000000000001</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.010000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>24622.2015792354</v>
+      </c>
+      <c r="C76" t="n">
+        <v>78741.55466781861</v>
+      </c>
+      <c r="D76" t="n">
+        <v>134054.1653149134</v>
+      </c>
+      <c r="E76" t="n">
+        <v>140286.3980802672</v>
+      </c>
+      <c r="F76" t="n">
+        <v>52553.62491795939</v>
+      </c>
+      <c r="G76" t="n">
+        <v>101238.6099888942</v>
+      </c>
+      <c r="H76" t="n">
+        <v>69484.5880048292</v>
+      </c>
+      <c r="I76" t="n">
+        <v>29551.7235453918</v>
+      </c>
+      <c r="J76" t="n">
+        <v>23625.7820068736</v>
+      </c>
+      <c r="K76" t="n">
+        <v>654158.6481061828</v>
+      </c>
+      <c r="L76" t="n">
+        <v>654158.6481061828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/tests/unit_tests/results/test_res.xlsx
+++ b/tests/unit_tests/results/test_res.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -10362,7 +10362,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -17410,7 +17410,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -18291,7 +18291,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -19172,7 +19172,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -20053,7 +20053,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -20934,7 +20934,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -21815,7 +21815,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -23577,7 +23577,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24458,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -25339,7 +25339,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -26220,7 +26220,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -27101,7 +27101,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -27982,7 +27982,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -28863,7 +28863,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -29744,7 +29744,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -30625,7 +30625,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -30936,7 +30936,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -31247,7 +31247,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -31558,7 +31558,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -31869,7 +31869,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:02</t>
         </is>
       </c>
     </row>
@@ -32199,7 +32199,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -32718,7 +32718,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -33237,7 +33237,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -34794,7 +34794,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -35313,7 +35313,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -35712,7 +35712,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -36111,7 +36111,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -36510,7 +36510,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -36909,7 +36909,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -37308,7 +37308,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -37707,7 +37707,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -38106,7 +38106,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -38505,7 +38505,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -38864,7 +38864,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -39223,7 +39223,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
@@ -39582,7 +39582,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2020-09-05 06:42:02</t>
+          <t>2020-09-05 18:46:01</t>
         </is>
       </c>
     </row>
